--- a/2_course/oib/day01/ex03/graph.xlsx
+++ b/2_course/oib/day01/ex03/graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrey/Documents/kpfu/2_course/oib/day01/ex03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AB7684-6E97-3740-95D5-AA11F6C53F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438EFC5A-C537-CA41-9496-FB66D6C26864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="1020" windowWidth="25060" windowHeight="15600" xr2:uid="{68B1D745-7E66-9141-A6B0-B9B8B9493080}"/>
   </bookViews>
@@ -16,15 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$21</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$2:$B$21</definedName>
     <definedName name="statistic" localSheetId="0">Sheet1!$A$2:$B$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -363,7 +354,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>61</c:v>
@@ -1502,7 +1493,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1532,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">

--- a/2_course/oib/day01/ex03/graph.xlsx
+++ b/2_course/oib/day01/ex03/graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrey/Documents/kpfu/2_course/oib/day01/ex03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438EFC5A-C537-CA41-9496-FB66D6C26864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360D23AC-10AD-E54B-AA4F-CC0787E587E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1020" windowWidth="25060" windowHeight="15600" xr2:uid="{68B1D745-7E66-9141-A6B0-B9B8B9493080}"/>
+    <workbookView xWindow="7480" yWindow="3120" windowWidth="20240" windowHeight="13040" xr2:uid="{68B1D745-7E66-9141-A6B0-B9B8B9493080}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{FF40E864-A36A-7946-BBCB-F218F36FFC3D}" name="statistic" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr sourceFile="/Users/andrey/Documents/kpfu/2_course/oib/day01/ex03/statistic.csv" decimal="," thousands=" " tab="0" semicolon="1">
+    <textPr prompt="0" sourceFile="/Users/andrey/Documents/kpfu/2_course/oib/day01/ex03/statistic.csv" decimal="," thousands=" " tab="0" semicolon="1">
       <textFields count="2">
         <textField type="text"/>
         <textField/>
@@ -55,64 +55,64 @@
     <t>Correct, %</t>
   </si>
   <si>
-    <t>26000</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>78000</t>
-  </si>
-  <si>
-    <t>104000</t>
-  </si>
-  <si>
-    <t>130000</t>
-  </si>
-  <si>
-    <t>157000</t>
-  </si>
-  <si>
-    <t>183000</t>
-  </si>
-  <si>
-    <t>209000</t>
-  </si>
-  <si>
-    <t>235000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>287000</t>
-  </si>
-  <si>
-    <t>313000</t>
-  </si>
-  <si>
-    <t>339000</t>
-  </si>
-  <si>
-    <t>365000</t>
-  </si>
-  <si>
-    <t>391000</t>
-  </si>
-  <si>
-    <t>418000</t>
-  </si>
-  <si>
-    <t>444000</t>
-  </si>
-  <si>
-    <t>470000</t>
-  </si>
-  <si>
-    <t>496000</t>
-  </si>
-  <si>
-    <t>522000</t>
+    <t>324000</t>
+  </si>
+  <si>
+    <t>649000</t>
+  </si>
+  <si>
+    <t>973000</t>
+  </si>
+  <si>
+    <t>1298000</t>
+  </si>
+  <si>
+    <t>1622000</t>
+  </si>
+  <si>
+    <t>1947000</t>
+  </si>
+  <si>
+    <t>2271000</t>
+  </si>
+  <si>
+    <t>2595000</t>
+  </si>
+  <si>
+    <t>2920000</t>
+  </si>
+  <si>
+    <t>3244000</t>
+  </si>
+  <si>
+    <t>3569000</t>
+  </si>
+  <si>
+    <t>3893000</t>
+  </si>
+  <si>
+    <t>4217000</t>
+  </si>
+  <si>
+    <t>4542000</t>
+  </si>
+  <si>
+    <t>4866000</t>
+  </si>
+  <si>
+    <t>5191000</t>
+  </si>
+  <si>
+    <t>5515000</t>
+  </si>
+  <si>
+    <t>5840000</t>
+  </si>
+  <si>
+    <t>6164000</t>
+  </si>
+  <si>
+    <t>6488000</t>
   </si>
 </sst>
 </file>
@@ -282,64 +282,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>26000</c:v>
+                  <c:v>324000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52000</c:v>
+                  <c:v>649000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78000</c:v>
+                  <c:v>973000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104000</c:v>
+                  <c:v>1298000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130000</c:v>
+                  <c:v>1622000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>157000</c:v>
+                  <c:v>1947000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>183000</c:v>
+                  <c:v>2271000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>209000</c:v>
+                  <c:v>2595000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>235000</c:v>
+                  <c:v>2920000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>261000</c:v>
+                  <c:v>3244000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>287000</c:v>
+                  <c:v>3569000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>313000</c:v>
+                  <c:v>3893000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>339000</c:v>
+                  <c:v>4217000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>365000</c:v>
+                  <c:v>4542000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>391000</c:v>
+                  <c:v>4866000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>418000</c:v>
+                  <c:v>5191000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>444000</c:v>
+                  <c:v>5515000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>470000</c:v>
+                  <c:v>5840000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>496000</c:v>
+                  <c:v>6164000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>522000</c:v>
+                  <c:v>6488000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -354,40 +354,40 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>76</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>76</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>84</c:v>
@@ -396,16 +396,16 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>92</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>92</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100</c:v>
@@ -1493,13 +1493,13 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1539,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1547,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1555,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1563,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1571,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1587,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1595,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1603,7 +1603,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1635,7 +1635,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1643,7 +1643,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1659,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
